--- a/biology/Médecine/Arc_pharyngé/Arc_pharyngé.xlsx
+++ b/biology/Médecine/Arc_pharyngé/Arc_pharyngé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arc_pharyng%C3%A9</t>
+          <t>Arc_pharyngé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arc pharyngé, est, chez les vertébrés, un des organes qui apparaît lors du développement du cou et de la tête. Les branchies sont formées par des arcs branchiaux sur lesquels s'insèrent des rangées de filaments (ou lamelles) branchiaux. Les arcs pharyngés se forment, chez l'Homme, à la quatrième et à la cinquième semaine du développement, donnant à l'embryon un aspect extérieur très caractéristique, et forment à l'issue de l'embryogenèse des sections de la mâchoire inférieure, de l'oreille moyenne et du larynx.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arc_pharyng%C3%A9</t>
+          <t>Arc_pharyngé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie et développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début, ils consistent en des bandes de tissus mésenchymateux dense séparés par de profonds sillons, les fentes branchiales du côté de l'ectoderme (feuillet supérieur de l'embryon) et les poches pharyngales (en) (poches branchiales) du côté de l'endoderme (feuillet inférieur) .
 Chaque arc branchial est constitué d'un axe mésenchymateux tapissé extérieurement d'ectoblastes. En plus du mésenchyme d'origine locale, l'axe des arcs reçoit un contingent non négligeable de cellules de la crête neurale qui migrent dans les arcs branchiaux et vont contribuer à la formation du squelette de la face.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arc_pharyng%C3%A9</t>
+          <t>Arc_pharyngé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Persistance à l'état adulte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mésenchyme local des arcs donne naissance aux muscles de la tête et du cou. Les dents de la mâchoire inférieure sont un tissu issu de l'interaction entre épithélium et mésenchyme du 1er arc branchial.
 Le processus maxillaire et le cartilage de Meckel sont appelés à disparaître, exception faite de deux petits segments situés à leurs extrémités dorsales, qui persistent et vont former respectivement l'enclume et le marteau. Cette première paire d'arcs (appelés « arcs mandibulaires »), innervée par le nerf trijumeau V, va donner le ventre antérieur du digastrique, le tenseur du voile du palais (ou péristaphylin externe), les muscles masticateurs et le mylo-hyoïdien (muscle paire du plancher oral). Le premier arc est par ailleurs vascularisé par le premier arc aortique : l'artère maxillaire.
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arc_pharyng%C3%A9</t>
+          <t>Arc_pharyngé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anomalie branchiale
 Résidu branchial</t>
